--- a/PlotLines.xlsx
+++ b/PlotLines.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AachenTurbine_1p5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NCSIST Projects\MRSRD\Post_AachenTurbine\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -444,49 +444,49 @@
         <v>0.3</v>
       </c>
       <c r="B2">
-        <v>0.2819064</v>
+        <v>0.2939794</v>
       </c>
       <c r="D2">
-        <f>$D3-0.75</f>
-        <v>14.00077406732397</v>
+        <f t="shared" ref="D2:D9" si="0">$D3-0.75</f>
+        <v>5.4980948376177317</v>
       </c>
       <c r="F2">
         <f>$A$5*COS($D2*PI()/180)</f>
-        <v>0.23772165216515714</v>
+        <v>0.24387284928045147</v>
       </c>
       <c r="G2">
         <f>$A$5*SIN($D2*PI()/180)</f>
-        <v>5.9274076052419716E-2</v>
+        <v>2.3474100277416563E-2</v>
       </c>
       <c r="I2">
         <f>$A$2*COS($D2*PI()/180)</f>
-        <v>0.29108773734509036</v>
+        <v>0.29861981544545074</v>
       </c>
       <c r="J2">
         <f>$A$2*SIN($D2*PI()/180)</f>
-        <v>7.2580501288677199E-2</v>
+        <v>2.8743796258061095E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3">
-        <f>$D4-0.75</f>
-        <v>14.75077406732397</v>
+        <f t="shared" si="0"/>
+        <v>6.2480948376177317</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F18" si="0">$A$5*COS($D3*PI()/180)</f>
-        <v>0.23692541229111383</v>
+        <f t="shared" ref="F3:F18" si="1">$A$5*COS($D3*PI()/180)</f>
+        <v>0.24354468962278722</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G18" si="1">$A$5*SIN($D3*PI()/180)</f>
-        <v>6.2380678183919541E-2</v>
+        <f t="shared" ref="G3:G18" si="2">$A$5*SIN($D3*PI()/180)</f>
+        <v>2.6664286162210338E-2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I18" si="2">$A$2*COS($D3*PI()/180)</f>
-        <v>0.29011274974422102</v>
+        <f t="shared" ref="I3:I18" si="3">$A$2*COS($D3*PI()/180)</f>
+        <v>0.29821798729320881</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J18" si="3">$A$2*SIN($D3*PI()/180)</f>
-        <v>7.6384503898676986E-2</v>
+        <f t="shared" ref="J3:J18" si="4">$A$2*SIN($D3*PI()/180)</f>
+        <v>3.2650146321073881E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -494,24 +494,24 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <f>$D5-0.75</f>
-        <v>15.50077406732397</v>
+        <f t="shared" si="0"/>
+        <v>6.9980948376177317</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0.23608857646736975</v>
+        <f t="shared" si="1"/>
+        <v>0.24317479983632759</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>6.5476591707349138E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.9849903258838347E-2</v>
       </c>
       <c r="I4">
-        <f t="shared" si="2"/>
-        <v>0.28908805281718741</v>
+        <f t="shared" si="3"/>
+        <v>0.29776506102407457</v>
       </c>
       <c r="J4">
-        <f t="shared" si="3"/>
-        <v>8.0175418417162206E-2</v>
+        <f t="shared" si="4"/>
+        <v>3.6550901949597973E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -519,112 +519,112 @@
         <v>0.245</v>
       </c>
       <c r="D5">
-        <f>$D6-0.75</f>
-        <v>16.25077406732397</v>
+        <f t="shared" si="0"/>
+        <v>7.7480948376177317</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0.23521128808143532</v>
+        <f t="shared" si="1"/>
+        <v>0.2427632432997833</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>6.8561286153864115E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.3030405728210671E-2</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
-        <v>0.28801382214053306</v>
+        <f t="shared" si="3"/>
+        <v>0.29726111424463264</v>
       </c>
       <c r="J5">
-        <f t="shared" si="3"/>
-        <v>8.3952595290445867E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.0445394769237558E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6">
-        <f>$D7-0.75</f>
-        <v>17.00077406732397</v>
+        <f t="shared" si="0"/>
+        <v>8.4980948376177317</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0.23429369745215917</v>
+        <f t="shared" si="1"/>
+        <v>0.24231009053124819</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
-        <v>7.1634232976951109E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.6205248607602457E-2</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
-        <v>0.28689024177815409</v>
+        <f t="shared" si="3"/>
+        <v>0.29670623330356921</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
-        <v>8.7715387318715643E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.4332957478696887E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7">
-        <f>$D8-0.75</f>
-        <v>17.75077406732397</v>
+        <f t="shared" si="0"/>
+        <v>9.2480948376177317</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0.23333596180397181</v>
+        <f t="shared" si="1"/>
+        <v>0.24181541917611632</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>7.4694905642991527E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.9373887904030458E-2</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
-        <v>0.28571750424976139</v>
+        <f t="shared" si="3"/>
+        <v>0.29610051327687714</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
-        <v>9.1463149766928389E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.8212923964118928E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D8">
-        <f>$D9-0.75</f>
-        <v>18.50077406732397</v>
+        <f t="shared" si="0"/>
+        <v>9.9980948376177317</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0.23233824523994617</v>
+        <f t="shared" si="1"/>
+        <v>0.24127931399377778</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>7.7742779721480429E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.2535780687463443E-2</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
-        <v>0.28449581049789324</v>
+        <f t="shared" si="3"/>
+        <v>0.29544405795156464</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
-        <v>9.5195240475282161E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.2084629413220541E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9">
-        <f>$D10-0.75</f>
-        <v>19.25077406732397</v>
+        <f t="shared" si="0"/>
+        <v>10.748094837617732</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0.23130071871367922</v>
+        <f t="shared" si="1"/>
+        <v>0.24070186684309572</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>8.0777332974884999E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.5690385183850421E-2</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
-        <v>0.28322536985348473</v>
+        <f t="shared" si="3"/>
+        <v>0.29473697980787233</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
-        <v>9.8911019969246936E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.5947410429204592E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -633,199 +633,199 @@
       </c>
       <c r="D10" s="1">
         <f>180/PI()*ACOS($B$2/$A$2)</f>
-        <v>20.00077406732397</v>
+        <v>11.498094837617732</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0.23022356000000005</v>
+        <f t="shared" si="1"/>
+        <v>0.24008317666666668</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>8.3798045448127148E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.8837160867950889E-2</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
-        <v>0.28190640000000006</v>
+        <f t="shared" si="3"/>
+        <v>0.2939794</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
-        <v>0.10260985156913528</v>
+        <f t="shared" si="4"/>
+        <v>5.9800605144429655E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11">
-        <f>$D10+0.75</f>
-        <v>20.75077406732397</v>
+        <f t="shared" ref="D11:D18" si="5">$D10+0.75</f>
+        <v>12.248094837617732</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0.22910695366450898</v>
+        <f t="shared" si="1"/>
+        <v>0.23942334947386737</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>8.6804399557675299E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.1975568555951021E-2</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
-        <v>0.28053912693613342</v>
+        <f t="shared" si="3"/>
+        <v>0.29317144833534781</v>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
-        <v>0.10629110149919424</v>
+        <f t="shared" si="4"/>
+        <v>6.3643553333817576E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12">
-        <f>$D11+0.75</f>
-        <v>21.50077406732397</v>
+        <f t="shared" si="5"/>
+        <v>12.998094837617732</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0.2279510910319533</v>
+        <f t="shared" si="1"/>
+        <v>0.23872249832269052</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>8.9795880180229506E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.5105070497850059E-2</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
-        <v>0.27912378493708567</v>
+        <f t="shared" si="3"/>
+        <v>0.29231326325227408</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
-        <v>0.10995413899619939</v>
+        <f t="shared" si="4"/>
+        <v>6.7475596527979659E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13">
-        <f>$D12+0.75</f>
-        <v>22.25077406732397</v>
+        <f t="shared" si="5"/>
+        <v>13.748094837617732</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>0.22675617015344474</v>
+        <f t="shared" si="1"/>
+        <v>0.23798074330037283</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>9.2771974740985266E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.8225130469600969E-2</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
-        <v>0.27766061651442214</v>
+        <f t="shared" si="3"/>
+        <v>0.29140499179637491</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
-        <v>0.11359833641753297</v>
+        <f t="shared" si="4"/>
+        <v>7.1296078126041995E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14">
-        <f>$D13+0.75</f>
-        <v>23.00077406732397</v>
+        <f t="shared" si="5"/>
+        <v>14.498094837617732</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0.22552239577252434</v>
+        <f t="shared" si="1"/>
+        <v>0.23719821150281881</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
-        <v>9.573217330146061E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.1335213864989704E-2</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
-        <v>0.2761498723745196</v>
+        <f t="shared" si="3"/>
+        <v>0.29044678959528836</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
-        <v>0.11722306934872727</v>
+        <f t="shared" si="4"/>
+        <v>7.5104343508150651E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15">
-        <f>$D14+0.75</f>
-        <v>23.75077406732397</v>
+        <f t="shared" si="5"/>
+        <v>15.248094837617732</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0.22424997929008078</v>
+        <f t="shared" si="1"/>
+        <v>0.23637503701282353</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
-        <v>9.8675968646871309E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.4434787787237213E-2</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
-        <v>0.27459181137560912</v>
+        <f t="shared" si="3"/>
+        <v>0.28943882083202882</v>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
-        <v>0.12082771671045466</v>
+        <f t="shared" si="4"/>
+        <v>7.8899740147637412E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16">
-        <f>$D15+0.75</f>
-        <v>24.50077406732397</v>
+        <f t="shared" si="5"/>
+        <v>15.998094837617732</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0.22293913872812793</v>
+        <f t="shared" si="1"/>
+        <v>0.23551136087709815</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
-        <v>0.10160285637303967</v>
+        <f t="shared" si="2"/>
+        <v>6.7523321140308568E-2</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
-        <v>0.27298670048342194</v>
+        <f t="shared" si="3"/>
+        <v>0.2883812582168549</v>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
-        <v>0.12441166086494654</v>
+        <f t="shared" si="4"/>
+        <v>8.2681617722826811E-2</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D17">
-        <f>$D16+0.75</f>
-        <v>25.25077406732397</v>
+        <f t="shared" si="5"/>
+        <v>16.748094837617732</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0.22159009869244783</v>
+        <f t="shared" si="1"/>
+        <v>0.23460733108210224</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
-        <v>0.10451233497282139</v>
+        <f t="shared" si="2"/>
+        <v>7.0600284719913531E-2</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
-        <v>0.27133481472544629</v>
+        <f t="shared" si="3"/>
+        <v>0.28727428295767621</v>
       </c>
       <c r="J17">
-        <f t="shared" si="3"/>
-        <v>0.12797428772182212</v>
+        <f t="shared" si="4"/>
+        <v>8.6449328228465558E-2</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D18">
-        <f>$D17+0.75</f>
-        <v>26.00077406732397</v>
+        <f t="shared" si="5"/>
+        <v>17.498094837617732</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0.22020309033410571</v>
+        <f t="shared" si="1"/>
+        <v>0.23366310252868727</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>0.10740390592203655</v>
+        <f t="shared" si="2"/>
+        <v>7.366515130418301E-2</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
-        <v>0.26963643714380292</v>
+        <f t="shared" si="3"/>
+        <v>0.2861180847290048</v>
       </c>
       <c r="J18">
-        <f t="shared" si="3"/>
-        <v>0.13151498684331006</v>
+        <f t="shared" si="4"/>
+        <v>9.0202226086754697E-2</v>
       </c>
     </row>
   </sheetData>
